--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Icam4-Itgb2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Icam4-Itgb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Itgb2</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.109744</v>
+        <v>1.412252666666667</v>
       </c>
       <c r="H2">
-        <v>3.329232</v>
+        <v>4.236758</v>
       </c>
       <c r="I2">
-        <v>0.3385593670631844</v>
+        <v>0.409051039104018</v>
       </c>
       <c r="J2">
-        <v>0.3385593670631844</v>
+        <v>0.4090510391040179</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -558,28 +558,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.2827783333333334</v>
+        <v>0.1825283333333333</v>
       </c>
       <c r="N2">
-        <v>0.8483350000000001</v>
+        <v>0.547585</v>
       </c>
       <c r="O2">
-        <v>0.00101236699965667</v>
+        <v>0.001028331058213739</v>
       </c>
       <c r="P2">
-        <v>0.00101236699965667</v>
+        <v>0.001028331058213739</v>
       </c>
       <c r="Q2">
-        <v>0.3138115587466667</v>
+        <v>0.2577761254922222</v>
       </c>
       <c r="R2">
-        <v>2.82430402872</v>
+        <v>2.31998512943</v>
       </c>
       <c r="S2">
-        <v>0.0003427463306394172</v>
+        <v>0.0004206398879052642</v>
       </c>
       <c r="T2">
-        <v>0.0003427463306394172</v>
+        <v>0.0004206398879052642</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.109744</v>
+        <v>1.412252666666667</v>
       </c>
       <c r="H3">
-        <v>3.329232</v>
+        <v>4.236758</v>
       </c>
       <c r="I3">
-        <v>0.3385593670631844</v>
+        <v>0.409051039104018</v>
       </c>
       <c r="J3">
-        <v>0.3385593670631844</v>
+        <v>0.4090510391040179</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -626,22 +626,22 @@
         <v>0.093691</v>
       </c>
       <c r="O3">
-        <v>0.0001118068646994796</v>
+        <v>0.0001759459539160193</v>
       </c>
       <c r="P3">
-        <v>0.0001118068646994796</v>
+        <v>0.0001759459539160193</v>
       </c>
       <c r="Q3">
-        <v>0.03465767503466666</v>
+        <v>0.04410512153088889</v>
       </c>
       <c r="R3">
-        <v>0.311919075312</v>
+        <v>0.396946093778</v>
       </c>
       <c r="S3">
-        <v>3.785326134597492E-05</v>
+        <v>7.197087527549533E-05</v>
       </c>
       <c r="T3">
-        <v>3.785326134597492E-05</v>
+        <v>7.197087527549533E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.109744</v>
+        <v>1.412252666666667</v>
       </c>
       <c r="H4">
-        <v>3.329232</v>
+        <v>4.236758</v>
       </c>
       <c r="I4">
-        <v>0.3385593670631844</v>
+        <v>0.409051039104018</v>
       </c>
       <c r="J4">
-        <v>0.3385593670631844</v>
+        <v>0.4090510391040179</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>133.2267966666667</v>
+        <v>103.239782</v>
       </c>
       <c r="N4">
-        <v>399.68039</v>
+        <v>309.719346</v>
       </c>
       <c r="O4">
-        <v>0.4769616215833458</v>
+        <v>0.5816339432625932</v>
       </c>
       <c r="P4">
-        <v>0.4769616215833458</v>
+        <v>0.5816339432625932</v>
       </c>
       <c r="Q4">
-        <v>147.8476382400534</v>
+        <v>145.8006574355853</v>
       </c>
       <c r="R4">
-        <v>1330.62874416048</v>
+        <v>1312.205916920268</v>
       </c>
       <c r="S4">
-        <v>0.1614798247166876</v>
+        <v>0.2379179688697312</v>
       </c>
       <c r="T4">
-        <v>0.1614798247166876</v>
+        <v>0.2379179688697312</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.109744</v>
+        <v>1.412252666666667</v>
       </c>
       <c r="H5">
-        <v>3.329232</v>
+        <v>4.236758</v>
       </c>
       <c r="I5">
-        <v>0.3385593670631844</v>
+        <v>0.409051039104018</v>
       </c>
       <c r="J5">
-        <v>0.3385593670631844</v>
+        <v>0.4090510391040179</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.05352499999999999</v>
+        <v>0.04852733333333333</v>
       </c>
       <c r="N5">
-        <v>0.160575</v>
+        <v>0.145582</v>
       </c>
       <c r="O5">
-        <v>0.000191623392845833</v>
+        <v>0.0002733940705404138</v>
       </c>
       <c r="P5">
-        <v>0.000191623392845833</v>
+        <v>0.0002733940705404139</v>
       </c>
       <c r="Q5">
-        <v>0.05939904759999999</v>
+        <v>0.06853285590622221</v>
       </c>
       <c r="R5">
-        <v>0.5345914284</v>
+        <v>0.616795703156</v>
       </c>
       <c r="S5">
-        <v>6.487589459638516E-05</v>
+        <v>0.0001118321286394335</v>
       </c>
       <c r="T5">
-        <v>6.487589459638516E-05</v>
+        <v>0.0001118321286394335</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,14 +773,14 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.109744</v>
+        <v>1.412252666666667</v>
       </c>
       <c r="H6">
-        <v>3.329232</v>
+        <v>4.236758</v>
       </c>
       <c r="I6">
-        <v>0.3385593670631844</v>
+        <v>0.409051039104018</v>
       </c>
       <c r="J6">
-        <v>0.3385593670631844</v>
+        <v>0.4090510391040179</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>145.729604</v>
+        <v>73.99751433333334</v>
       </c>
       <c r="N6">
-        <v>437.188812</v>
+        <v>221.992543</v>
       </c>
       <c r="O6">
-        <v>0.5217225811594521</v>
+        <v>0.4168883856547366</v>
       </c>
       <c r="P6">
-        <v>0.5217225811594522</v>
+        <v>0.4168883856547366</v>
       </c>
       <c r="Q6">
-        <v>161.722553661376</v>
+        <v>104.5031869439549</v>
       </c>
       <c r="R6">
-        <v>1455.502982952384</v>
+        <v>940.528682495594</v>
       </c>
       <c r="S6">
-        <v>0.176634066859915</v>
+        <v>0.1705286273424666</v>
       </c>
       <c r="T6">
-        <v>0.176634066859915</v>
+        <v>0.1705286273424666</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>2.023056</v>
       </c>
       <c r="I7">
-        <v>0.2057304984733349</v>
+        <v>0.1953222626748136</v>
       </c>
       <c r="J7">
-        <v>0.2057304984733349</v>
+        <v>0.1953222626748136</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -868,28 +868,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.2827783333333334</v>
+        <v>0.1825283333333333</v>
       </c>
       <c r="N7">
-        <v>0.8483350000000001</v>
+        <v>0.547585</v>
       </c>
       <c r="O7">
-        <v>0.00101236699965667</v>
+        <v>0.001028331058213739</v>
       </c>
       <c r="P7">
-        <v>0.00101236699965667</v>
+        <v>0.001028331058213739</v>
       </c>
       <c r="Q7">
-        <v>0.19069213464</v>
+        <v>0.12308834664</v>
       </c>
       <c r="R7">
-        <v>1.71622921176</v>
+        <v>1.10779511976</v>
       </c>
       <c r="S7">
-        <v>0.0002082747674773211</v>
+        <v>0.000200855949069093</v>
       </c>
       <c r="T7">
-        <v>0.0002082747674773211</v>
+        <v>0.000200855949069093</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>2.023056</v>
       </c>
       <c r="I8">
-        <v>0.2057304984733349</v>
+        <v>0.1953222626748136</v>
       </c>
       <c r="J8">
-        <v>0.2057304984733349</v>
+        <v>0.1953222626748136</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -936,10 +936,10 @@
         <v>0.093691</v>
       </c>
       <c r="O8">
-        <v>0.0001118068646994796</v>
+        <v>0.0001759459539160193</v>
       </c>
       <c r="P8">
-        <v>0.0001118068646994796</v>
+        <v>0.0001759459539160193</v>
       </c>
       <c r="Q8">
         <v>0.021060237744</v>
@@ -948,10 +948,10 @@
         <v>0.189542139696</v>
       </c>
       <c r="S8">
-        <v>2.300208200736465E-05</v>
+        <v>3.436616182735537E-05</v>
       </c>
       <c r="T8">
-        <v>2.300208200736465E-05</v>
+        <v>3.436616182735537E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,10 +959,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -980,10 +980,10 @@
         <v>2.023056</v>
       </c>
       <c r="I9">
-        <v>0.2057304984733349</v>
+        <v>0.1953222626748136</v>
       </c>
       <c r="J9">
-        <v>0.2057304984733349</v>
+        <v>0.1953222626748136</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>133.2267966666667</v>
+        <v>103.239782</v>
       </c>
       <c r="N9">
-        <v>399.68039</v>
+        <v>309.719346</v>
       </c>
       <c r="O9">
-        <v>0.4769616215833458</v>
+        <v>0.5816339432625932</v>
       </c>
       <c r="P9">
-        <v>0.4769616215833458</v>
+        <v>0.5816339432625932</v>
       </c>
       <c r="Q9">
-        <v>89.84175678576</v>
+        <v>69.61995347126398</v>
       </c>
       <c r="R9">
-        <v>808.57581107184</v>
+        <v>626.579581241376</v>
       </c>
       <c r="S9">
-        <v>0.09812555216099185</v>
+        <v>0.1136060578465239</v>
       </c>
       <c r="T9">
-        <v>0.09812555216099185</v>
+        <v>0.1136060578465239</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1042,10 +1042,10 @@
         <v>2.023056</v>
       </c>
       <c r="I10">
-        <v>0.2057304984733349</v>
+        <v>0.1953222626748136</v>
       </c>
       <c r="J10">
-        <v>0.2057304984733349</v>
+        <v>0.1953222626748136</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.05352499999999999</v>
+        <v>0.04852733333333333</v>
       </c>
       <c r="N10">
-        <v>0.160575</v>
+        <v>0.145582</v>
       </c>
       <c r="O10">
-        <v>0.000191623392845833</v>
+        <v>0.0002733940705404138</v>
       </c>
       <c r="P10">
-        <v>0.000191623392845833</v>
+        <v>0.0002733940705404139</v>
       </c>
       <c r="Q10">
-        <v>0.03609469079999999</v>
+        <v>0.03272450428799999</v>
       </c>
       <c r="R10">
-        <v>0.3248522171999999</v>
+        <v>0.2945205385919999</v>
       </c>
       <c r="S10">
-        <v>3.942277612932489E-05</v>
+        <v>5.339994845983124E-05</v>
       </c>
       <c r="T10">
-        <v>3.942277612932489E-05</v>
+        <v>5.339994845983124E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,10 +1104,10 @@
         <v>2.023056</v>
       </c>
       <c r="I11">
-        <v>0.2057304984733349</v>
+        <v>0.1953222626748136</v>
       </c>
       <c r="J11">
-        <v>0.2057304984733349</v>
+        <v>0.1953222626748136</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>145.729604</v>
+        <v>73.99751433333334</v>
       </c>
       <c r="N11">
-        <v>437.188812</v>
+        <v>221.992543</v>
       </c>
       <c r="O11">
-        <v>0.5217225811594521</v>
+        <v>0.4168883856547366</v>
       </c>
       <c r="P11">
-        <v>0.5217225811594522</v>
+        <v>0.4168883856547366</v>
       </c>
       <c r="Q11">
-        <v>98.27304991660799</v>
+        <v>49.900371785712</v>
       </c>
       <c r="R11">
-        <v>884.457449249472</v>
+        <v>449.103346071408</v>
       </c>
       <c r="S11">
-        <v>0.107334246686729</v>
+        <v>0.08142758276893348</v>
       </c>
       <c r="T11">
-        <v>0.107334246686729</v>
+        <v>0.08142758276893347</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.3512606666666667</v>
+        <v>0.9406819999999999</v>
       </c>
       <c r="H12">
-        <v>1.053782</v>
+        <v>2.822046</v>
       </c>
       <c r="I12">
-        <v>0.1071621824320374</v>
+        <v>0.2724632487150169</v>
       </c>
       <c r="J12">
-        <v>0.1071621824320373</v>
+        <v>0.2724632487150168</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1178,28 +1178,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.2827783333333334</v>
+        <v>0.1825283333333333</v>
       </c>
       <c r="N12">
-        <v>0.8483350000000001</v>
+        <v>0.547585</v>
       </c>
       <c r="O12">
-        <v>0.00101236699965667</v>
+        <v>0.001028331058213739</v>
       </c>
       <c r="P12">
-        <v>0.00101236699965667</v>
+        <v>0.001028331058213739</v>
       </c>
       <c r="Q12">
-        <v>0.09932890588555557</v>
+        <v>0.1717011176566666</v>
       </c>
       <c r="R12">
-        <v>0.8939601529700001</v>
+        <v>1.54531005891</v>
       </c>
       <c r="S12">
-        <v>0.0001084874571053824</v>
+        <v>0.0002801824208754664</v>
       </c>
       <c r="T12">
-        <v>0.0001084874571053823</v>
+        <v>0.0002801824208754664</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.3512606666666667</v>
+        <v>0.9406819999999999</v>
       </c>
       <c r="H13">
-        <v>1.053782</v>
+        <v>2.822046</v>
       </c>
       <c r="I13">
-        <v>0.1071621824320374</v>
+        <v>0.2724632487150169</v>
       </c>
       <c r="J13">
-        <v>0.1071621824320373</v>
+        <v>0.2724632487150168</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1246,22 +1246,22 @@
         <v>0.093691</v>
       </c>
       <c r="O13">
-        <v>0.0001118068646994796</v>
+        <v>0.0001759459539160193</v>
       </c>
       <c r="P13">
-        <v>0.0001118068646994796</v>
+        <v>0.0001759459539160193</v>
       </c>
       <c r="Q13">
-        <v>0.01096998770688889</v>
+        <v>0.02937781242066666</v>
       </c>
       <c r="R13">
-        <v>0.098729889362</v>
+        <v>0.264400311786</v>
       </c>
       <c r="S13">
-        <v>1.198146763207975E-05</v>
+        <v>4.793880620222125E-05</v>
       </c>
       <c r="T13">
-        <v>1.198146763207975E-05</v>
+        <v>4.793880620222124E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,10 +1269,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.3512606666666667</v>
+        <v>0.9406819999999999</v>
       </c>
       <c r="H14">
-        <v>1.053782</v>
+        <v>2.822046</v>
       </c>
       <c r="I14">
-        <v>0.1071621824320374</v>
+        <v>0.2724632487150169</v>
       </c>
       <c r="J14">
-        <v>0.1071621824320373</v>
+        <v>0.2724632487150168</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>133.2267966666667</v>
+        <v>103.239782</v>
       </c>
       <c r="N14">
-        <v>399.68039</v>
+        <v>309.719346</v>
       </c>
       <c r="O14">
-        <v>0.4769616215833458</v>
+        <v>0.5816339432625932</v>
       </c>
       <c r="P14">
-        <v>0.4769616215833458</v>
+        <v>0.5816339432625932</v>
       </c>
       <c r="Q14">
-        <v>46.79733341499778</v>
+        <v>97.11580461132398</v>
       </c>
       <c r="R14">
-        <v>421.17600073498</v>
+        <v>874.0422415019159</v>
       </c>
       <c r="S14">
-        <v>0.05111224830519488</v>
+        <v>0.158473873744252</v>
       </c>
       <c r="T14">
-        <v>0.05111224830519487</v>
+        <v>0.1584738737442519</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,13 +1331,13 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.3512606666666667</v>
+        <v>0.9406819999999999</v>
       </c>
       <c r="H15">
-        <v>1.053782</v>
+        <v>2.822046</v>
       </c>
       <c r="I15">
-        <v>0.1071621824320374</v>
+        <v>0.2724632487150169</v>
       </c>
       <c r="J15">
-        <v>0.1071621824320373</v>
+        <v>0.2724632487150168</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>0.05352499999999999</v>
+        <v>0.04852733333333333</v>
       </c>
       <c r="N15">
-        <v>0.160575</v>
+        <v>0.145582</v>
       </c>
       <c r="O15">
-        <v>0.000191623392845833</v>
+        <v>0.0002733940705404138</v>
       </c>
       <c r="P15">
-        <v>0.000191623392845833</v>
+        <v>0.0002733940705404139</v>
       </c>
       <c r="Q15">
-        <v>0.01880122718333333</v>
+        <v>0.04564878897466666</v>
       </c>
       <c r="R15">
-        <v>0.16921104465</v>
+        <v>0.4108391007719999</v>
       </c>
       <c r="S15">
-        <v>2.053478098239112E-05</v>
+        <v>7.448983663886364E-05</v>
       </c>
       <c r="T15">
-        <v>2.053478098239112E-05</v>
+        <v>7.448983663886364E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,14 +1393,14 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
         <v>3</v>
       </c>
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.3512606666666667</v>
+        <v>0.9406819999999999</v>
       </c>
       <c r="H16">
-        <v>1.053782</v>
+        <v>2.822046</v>
       </c>
       <c r="I16">
-        <v>0.1071621824320374</v>
+        <v>0.2724632487150169</v>
       </c>
       <c r="J16">
-        <v>0.1071621824320373</v>
+        <v>0.2724632487150168</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>145.729604</v>
+        <v>73.99751433333334</v>
       </c>
       <c r="N16">
-        <v>437.188812</v>
+        <v>221.992543</v>
       </c>
       <c r="O16">
-        <v>0.5217225811594521</v>
+        <v>0.4168883856547366</v>
       </c>
       <c r="P16">
-        <v>0.5217225811594522</v>
+        <v>0.4168883856547366</v>
       </c>
       <c r="Q16">
-        <v>51.18907785410933</v>
+        <v>69.60812977810866</v>
       </c>
       <c r="R16">
-        <v>460.701700686984</v>
+        <v>626.473168002978</v>
       </c>
       <c r="S16">
-        <v>0.05590893042112263</v>
+        <v>0.1135867639070484</v>
       </c>
       <c r="T16">
-        <v>0.05590893042112263</v>
+        <v>0.1135867639070483</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,31 +1455,31 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>1.142485</v>
+        <v>0.05847033333333334</v>
       </c>
       <c r="H17">
-        <v>3.427455</v>
+        <v>0.175411</v>
       </c>
       <c r="I17">
-        <v>0.3485479520314435</v>
+        <v>0.01693560307675702</v>
       </c>
       <c r="J17">
-        <v>0.3485479520314435</v>
+        <v>0.01693560307675701</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -1488,28 +1488,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.2827783333333334</v>
+        <v>0.1825283333333333</v>
       </c>
       <c r="N17">
-        <v>0.8483350000000001</v>
+        <v>0.547585</v>
       </c>
       <c r="O17">
-        <v>0.00101236699965667</v>
+        <v>0.001028331058213739</v>
       </c>
       <c r="P17">
-        <v>0.00101236699965667</v>
+        <v>0.001028331058213739</v>
       </c>
       <c r="Q17">
-        <v>0.3230700041583334</v>
+        <v>0.01067249249277778</v>
       </c>
       <c r="R17">
-        <v>2.907630037425</v>
+        <v>0.096052432435</v>
       </c>
       <c r="S17">
-        <v>0.0003528584444345494</v>
+        <v>1.741540663340939E-05</v>
       </c>
       <c r="T17">
-        <v>0.0003528584444345493</v>
+        <v>1.741540663340939E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,31 +1517,31 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>1.142485</v>
+        <v>0.05847033333333334</v>
       </c>
       <c r="H18">
-        <v>3.427455</v>
+        <v>0.175411</v>
       </c>
       <c r="I18">
-        <v>0.3485479520314435</v>
+        <v>0.01693560307675702</v>
       </c>
       <c r="J18">
-        <v>0.3485479520314435</v>
+        <v>0.01693560307675701</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1556,22 +1556,22 @@
         <v>0.093691</v>
       </c>
       <c r="O18">
-        <v>0.0001118068646994796</v>
+        <v>0.0001759459539160193</v>
       </c>
       <c r="P18">
-        <v>0.0001118068646994796</v>
+        <v>0.0001759459539160193</v>
       </c>
       <c r="Q18">
-        <v>0.03568018737833333</v>
+        <v>0.001826048000111111</v>
       </c>
       <c r="R18">
-        <v>0.3211216864049999</v>
+        <v>0.016434432001</v>
       </c>
       <c r="S18">
-        <v>3.897005371406032E-05</v>
+        <v>2.979750838483084E-06</v>
       </c>
       <c r="T18">
-        <v>3.897005371406032E-05</v>
+        <v>2.979750838483084E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,31 +1579,31 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>1.142485</v>
+        <v>0.05847033333333334</v>
       </c>
       <c r="H19">
-        <v>3.427455</v>
+        <v>0.175411</v>
       </c>
       <c r="I19">
-        <v>0.3485479520314435</v>
+        <v>0.01693560307675702</v>
       </c>
       <c r="J19">
-        <v>0.3485479520314435</v>
+        <v>0.01693560307675701</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>133.2267966666667</v>
+        <v>103.239782</v>
       </c>
       <c r="N19">
-        <v>399.68039</v>
+        <v>309.719346</v>
       </c>
       <c r="O19">
-        <v>0.4769616215833458</v>
+        <v>0.5816339432625932</v>
       </c>
       <c r="P19">
-        <v>0.4769616215833458</v>
+        <v>0.5816339432625932</v>
       </c>
       <c r="Q19">
-        <v>152.2096167897167</v>
+        <v>6.036464466800667</v>
       </c>
       <c r="R19">
-        <v>1369.88655110745</v>
+        <v>54.328180201206</v>
       </c>
       <c r="S19">
-        <v>0.1662439964004715</v>
+        <v>0.00985032159906429</v>
       </c>
       <c r="T19">
-        <v>0.1662439964004715</v>
+        <v>0.009850321599064288</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,31 +1641,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>1.142485</v>
+        <v>0.05847033333333334</v>
       </c>
       <c r="H20">
-        <v>3.427455</v>
+        <v>0.175411</v>
       </c>
       <c r="I20">
-        <v>0.3485479520314435</v>
+        <v>0.01693560307675702</v>
       </c>
       <c r="J20">
-        <v>0.3485479520314435</v>
+        <v>0.01693560307675701</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M20">
-        <v>0.05352499999999999</v>
+        <v>0.04852733333333333</v>
       </c>
       <c r="N20">
-        <v>0.160575</v>
+        <v>0.145582</v>
       </c>
       <c r="O20">
-        <v>0.000191623392845833</v>
+        <v>0.0002733940705404138</v>
       </c>
       <c r="P20">
-        <v>0.000191623392845833</v>
+        <v>0.0002733940705404139</v>
       </c>
       <c r="Q20">
-        <v>0.06115150962499999</v>
+        <v>0.002837409355777778</v>
       </c>
       <c r="R20">
-        <v>0.5503635866249998</v>
+        <v>0.025536684202</v>
       </c>
       <c r="S20">
-        <v>6.678994113773185E-05</v>
+        <v>4.630093462211358E-06</v>
       </c>
       <c r="T20">
-        <v>6.678994113773185E-05</v>
+        <v>4.630093462211358E-06</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.05847033333333334</v>
+      </c>
+      <c r="H21">
+        <v>0.175411</v>
+      </c>
+      <c r="I21">
+        <v>0.01693560307675702</v>
+      </c>
+      <c r="J21">
+        <v>0.01693560307675701</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>73.99751433333334</v>
+      </c>
+      <c r="N21">
+        <v>221.992543</v>
+      </c>
+      <c r="O21">
+        <v>0.4168883856547366</v>
+      </c>
+      <c r="P21">
+        <v>0.4168883856547366</v>
+      </c>
+      <c r="Q21">
+        <v>4.326659328908112</v>
+      </c>
+      <c r="R21">
+        <v>38.93993396017301</v>
+      </c>
+      <c r="S21">
+        <v>0.007060256226758624</v>
+      </c>
+      <c r="T21">
+        <v>0.007060256226758622</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.3667526666666667</v>
+      </c>
+      <c r="H22">
+        <v>1.100258</v>
+      </c>
+      <c r="I22">
+        <v>0.1062278464293945</v>
+      </c>
+      <c r="J22">
+        <v>0.1062278464293945</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M22">
+        <v>0.1825283333333333</v>
+      </c>
+      <c r="N22">
+        <v>0.547585</v>
+      </c>
+      <c r="O22">
+        <v>0.001028331058213739</v>
+      </c>
+      <c r="P22">
+        <v>0.001028331058213739</v>
+      </c>
+      <c r="Q22">
+        <v>0.06694275299222222</v>
+      </c>
+      <c r="R22">
+        <v>0.6024847769299999</v>
+      </c>
+      <c r="S22">
+        <v>0.0001092373937305058</v>
+      </c>
+      <c r="T22">
+        <v>0.0001092373937305058</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.3667526666666667</v>
+      </c>
+      <c r="H23">
+        <v>1.100258</v>
+      </c>
+      <c r="I23">
+        <v>0.1062278464293945</v>
+      </c>
+      <c r="J23">
+        <v>0.1062278464293945</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.03123033333333333</v>
+      </c>
+      <c r="N23">
+        <v>0.093691</v>
+      </c>
+      <c r="O23">
+        <v>0.0001759459539160193</v>
+      </c>
+      <c r="P23">
+        <v>0.0001759459539160193</v>
+      </c>
+      <c r="Q23">
+        <v>0.01145380803088889</v>
+      </c>
+      <c r="R23">
+        <v>0.103084272278</v>
+      </c>
+      <c r="S23">
+        <v>1.869035977246422E-05</v>
+      </c>
+      <c r="T23">
+        <v>1.869035977246421E-05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.3667526666666667</v>
+      </c>
+      <c r="H24">
+        <v>1.100258</v>
+      </c>
+      <c r="I24">
+        <v>0.1062278464293945</v>
+      </c>
+      <c r="J24">
+        <v>0.1062278464293945</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>103.239782</v>
+      </c>
+      <c r="N24">
+        <v>309.719346</v>
+      </c>
+      <c r="O24">
+        <v>0.5816339432625932</v>
+      </c>
+      <c r="P24">
+        <v>0.5816339432625932</v>
+      </c>
+      <c r="Q24">
+        <v>37.86346535458533</v>
+      </c>
+      <c r="R24">
+        <v>340.771188191268</v>
+      </c>
+      <c r="S24">
+        <v>0.06178572120302191</v>
+      </c>
+      <c r="T24">
+        <v>0.06178572120302189</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>1.142485</v>
-      </c>
-      <c r="H21">
-        <v>3.427455</v>
-      </c>
-      <c r="I21">
-        <v>0.3485479520314435</v>
-      </c>
-      <c r="J21">
-        <v>0.3485479520314435</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>145.729604</v>
-      </c>
-      <c r="N21">
-        <v>437.188812</v>
-      </c>
-      <c r="O21">
-        <v>0.5217225811594521</v>
-      </c>
-      <c r="P21">
-        <v>0.5217225811594522</v>
-      </c>
-      <c r="Q21">
-        <v>166.49388662594</v>
-      </c>
-      <c r="R21">
-        <v>1498.44497963346</v>
-      </c>
-      <c r="S21">
-        <v>0.1818453371916856</v>
-      </c>
-      <c r="T21">
-        <v>0.1818453371916856</v>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.3667526666666667</v>
+      </c>
+      <c r="H25">
+        <v>1.100258</v>
+      </c>
+      <c r="I25">
+        <v>0.1062278464293945</v>
+      </c>
+      <c r="J25">
+        <v>0.1062278464293945</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M25">
+        <v>0.04852733333333333</v>
+      </c>
+      <c r="N25">
+        <v>0.145582</v>
+      </c>
+      <c r="O25">
+        <v>0.0002733940705404138</v>
+      </c>
+      <c r="P25">
+        <v>0.0002733940705404139</v>
+      </c>
+      <c r="Q25">
+        <v>0.01779752890622222</v>
+      </c>
+      <c r="R25">
+        <v>0.160177760156</v>
+      </c>
+      <c r="S25">
+        <v>2.904206334007413E-05</v>
+      </c>
+      <c r="T25">
+        <v>2.904206334007413E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.3667526666666667</v>
+      </c>
+      <c r="H26">
+        <v>1.100258</v>
+      </c>
+      <c r="I26">
+        <v>0.1062278464293945</v>
+      </c>
+      <c r="J26">
+        <v>0.1062278464293945</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>73.99751433333334</v>
+      </c>
+      <c r="N26">
+        <v>221.992543</v>
+      </c>
+      <c r="O26">
+        <v>0.4168883856547366</v>
+      </c>
+      <c r="P26">
+        <v>0.4168883856547366</v>
+      </c>
+      <c r="Q26">
+        <v>27.13878570845489</v>
+      </c>
+      <c r="R26">
+        <v>244.249071376094</v>
+      </c>
+      <c r="S26">
+        <v>0.04428515540952956</v>
+      </c>
+      <c r="T26">
+        <v>0.04428515540952954</v>
       </c>
     </row>
   </sheetData>
